--- a/JupyterNotebooks/AveragedIntensites/alpha3F-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha3F-HW20.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="alpha3F-HW20.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="alpha3F" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>

--- a/JupyterNotebooks/AveragedIntensites/alpha3F-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha3F-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1064,6 +1064,47 @@
         <v>0.9922222882810824</v>
       </c>
     </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.071875655893269</v>
+      </c>
+      <c r="D16">
+        <v>0.8773520961605883</v>
+      </c>
+      <c r="E16">
+        <v>1.003181088641286</v>
+      </c>
+      <c r="F16">
+        <v>1.071875655893269</v>
+      </c>
+      <c r="G16">
+        <v>0.9206958191208094</v>
+      </c>
+      <c r="H16">
+        <v>1.068054474609536</v>
+      </c>
+      <c r="I16">
+        <v>1.02487355900856</v>
+      </c>
+      <c r="J16">
+        <v>0.8773520961605883</v>
+      </c>
+      <c r="K16">
+        <v>0.9402665924009372</v>
+      </c>
+      <c r="L16">
+        <v>1.006071124147103</v>
+      </c>
+      <c r="M16">
+        <v>0.9943387822390081</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/JupyterNotebooks/AveragedIntensites/alpha3F-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha3F-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.071875655893269</v>

--- a/JupyterNotebooks/AveragedIntensites/alpha3F-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha3F-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.8220759999999987</v>
+        <v>1.071875655893269</v>
       </c>
       <c r="D10">
-        <v>0.8786080000000013</v>
+        <v>0.8773520961605883</v>
       </c>
       <c r="E10">
-        <v>1.130088000000001</v>
+        <v>1.003181088641286</v>
       </c>
       <c r="F10">
-        <v>0.8220759999999987</v>
+        <v>1.071875655893269</v>
       </c>
       <c r="G10">
-        <v>0.8733480000000009</v>
+        <v>0.9206958191208094</v>
       </c>
       <c r="H10">
-        <v>1.324372000000001</v>
+        <v>1.068054474609536</v>
       </c>
       <c r="I10">
-        <v>1.059083999999998</v>
+        <v>1.02487355900856</v>
       </c>
       <c r="J10">
-        <v>0.8786080000000013</v>
+        <v>0.8773520961605883</v>
       </c>
       <c r="K10">
-        <v>1.004348000000001</v>
+        <v>0.9402665924009372</v>
       </c>
       <c r="L10">
-        <v>0.9132119999999998</v>
+        <v>1.006071124147103</v>
       </c>
       <c r="M10">
-        <v>1.014596</v>
+        <v>0.9943387822390081</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +879,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.84</v>
+        <v>0.8559521800981814</v>
       </c>
       <c r="D11">
-        <v>0.44</v>
+        <v>0.9936283594407729</v>
       </c>
       <c r="E11">
-        <v>1.2701375</v>
+        <v>1.083037753701314</v>
       </c>
       <c r="F11">
-        <v>0.84</v>
+        <v>0.8559521800981814</v>
       </c>
       <c r="G11">
-        <v>0.68</v>
+        <v>0.8841957675985841</v>
       </c>
       <c r="H11">
-        <v>1.523062500000001</v>
+        <v>1.381601059677736</v>
       </c>
       <c r="I11">
-        <v>1.18</v>
+        <v>1.019129400247127</v>
       </c>
       <c r="J11">
-        <v>0.44</v>
+        <v>0.9936283594407729</v>
       </c>
       <c r="K11">
-        <v>0.8550687499999999</v>
+        <v>1.038333056571044</v>
       </c>
       <c r="L11">
-        <v>0.847534375</v>
+        <v>0.9471426183346124</v>
       </c>
       <c r="M11">
-        <v>0.9888666666666667</v>
+        <v>1.036257420127286</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9071332022272008</v>
+        <v>0.8561294545975838</v>
       </c>
       <c r="D12">
-        <v>0.670759116083201</v>
+        <v>0.9964081412892755</v>
       </c>
       <c r="E12">
-        <v>1.153081783500798</v>
+        <v>1.081925062944225</v>
       </c>
       <c r="F12">
-        <v>0.9071332022272008</v>
+        <v>0.8561294545975838</v>
       </c>
       <c r="G12">
-        <v>0.8128243193856006</v>
+        <v>0.8860914548738477</v>
       </c>
       <c r="H12">
-        <v>1.299469620121599</v>
+        <v>1.378073992277186</v>
       </c>
       <c r="I12">
-        <v>1.099001794150403</v>
+        <v>1.018241029677261</v>
       </c>
       <c r="J12">
-        <v>0.670759116083201</v>
+        <v>0.9964081412892755</v>
       </c>
       <c r="K12">
-        <v>0.9119204497919995</v>
+        <v>1.03916660211675</v>
       </c>
       <c r="L12">
-        <v>0.9095268260096002</v>
+        <v>0.9476480283571671</v>
       </c>
       <c r="M12">
-        <v>0.990378305911467</v>
+        <v>1.03614485594323</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9911678954760118</v>
+        <v>0.8556246841000913</v>
       </c>
       <c r="D13">
-        <v>0.9958737558574973</v>
+        <v>0.9945988707123787</v>
       </c>
       <c r="E13">
-        <v>0.9957147316274457</v>
+        <v>1.082831185264789</v>
       </c>
       <c r="F13">
-        <v>0.9911678954760118</v>
+        <v>0.8556246841000913</v>
       </c>
       <c r="G13">
-        <v>0.9932382457228821</v>
+        <v>0.8846879242478715</v>
       </c>
       <c r="H13">
-        <v>0.9975478825372642</v>
+        <v>1.381331004637797</v>
       </c>
       <c r="I13">
-        <v>0.9940132030358892</v>
+        <v>1.018779936820124</v>
       </c>
       <c r="J13">
-        <v>0.9958737558574973</v>
+        <v>0.9945988707123787</v>
       </c>
       <c r="K13">
-        <v>0.9957942437424715</v>
+        <v>1.038715027988584</v>
       </c>
       <c r="L13">
-        <v>0.9934810696092417</v>
+        <v>0.9471698560443375</v>
       </c>
       <c r="M13">
-        <v>0.9945926190428317</v>
+        <v>1.036308934297175</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.016163855622647</v>
+        <v>0.8220759999999987</v>
       </c>
       <c r="D14">
-        <v>1.008339418075178</v>
+        <v>0.8786080000000013</v>
       </c>
       <c r="E14">
-        <v>0.9803465068803793</v>
+        <v>1.130088000000001</v>
       </c>
       <c r="F14">
-        <v>1.016163855622647</v>
+        <v>0.8220759999999987</v>
       </c>
       <c r="G14">
-        <v>1.000786570985487</v>
+        <v>0.8733480000000009</v>
       </c>
       <c r="H14">
-        <v>0.961461055674396</v>
+        <v>1.324372000000001</v>
       </c>
       <c r="I14">
-        <v>0.9891967017421806</v>
+        <v>1.059083999999998</v>
       </c>
       <c r="J14">
-        <v>1.008339418075178</v>
+        <v>0.8786080000000013</v>
       </c>
       <c r="K14">
-        <v>0.9943429624777786</v>
+        <v>1.004348000000001</v>
       </c>
       <c r="L14">
-        <v>1.005253409050213</v>
+        <v>0.9132119999999998</v>
       </c>
       <c r="M14">
-        <v>0.9927156848300447</v>
+        <v>1.014596</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9799777234107785</v>
+        <v>0.84</v>
       </c>
       <c r="D15">
-        <v>1.041182018258795</v>
+        <v>0.44</v>
       </c>
       <c r="E15">
-        <v>0.9813921163939127</v>
+        <v>1.2701375</v>
       </c>
       <c r="F15">
-        <v>0.9799777234107785</v>
+        <v>0.84</v>
       </c>
       <c r="G15">
-        <v>1.029828105860723</v>
+        <v>0.68</v>
       </c>
       <c r="H15">
-        <v>0.942627928293192</v>
+        <v>1.523062500000001</v>
       </c>
       <c r="I15">
-        <v>0.9783258374690924</v>
+        <v>1.18</v>
       </c>
       <c r="J15">
-        <v>1.041182018258795</v>
+        <v>0.44</v>
       </c>
       <c r="K15">
-        <v>1.011287067326354</v>
+        <v>0.8550687499999999</v>
       </c>
       <c r="L15">
-        <v>0.9956323953685662</v>
+        <v>0.847534375</v>
       </c>
       <c r="M15">
-        <v>0.9922222882810824</v>
+        <v>0.9888666666666667</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.071875655893269</v>
+        <v>0.9071332022272008</v>
       </c>
       <c r="D16">
-        <v>0.8773520961605883</v>
+        <v>0.670759116083201</v>
       </c>
       <c r="E16">
-        <v>1.003181088641286</v>
+        <v>1.153081783500798</v>
       </c>
       <c r="F16">
-        <v>1.071875655893269</v>
+        <v>0.9071332022272008</v>
       </c>
       <c r="G16">
-        <v>0.9206958191208094</v>
+        <v>0.8128243193856006</v>
       </c>
       <c r="H16">
-        <v>1.068054474609536</v>
+        <v>1.299469620121599</v>
       </c>
       <c r="I16">
-        <v>1.02487355900856</v>
+        <v>1.099001794150403</v>
       </c>
       <c r="J16">
-        <v>0.8773520961605883</v>
+        <v>0.670759116083201</v>
       </c>
       <c r="K16">
-        <v>0.9402665924009372</v>
+        <v>0.9119204497919995</v>
       </c>
       <c r="L16">
-        <v>1.006071124147103</v>
+        <v>0.9095268260096002</v>
       </c>
       <c r="M16">
-        <v>0.9943387822390081</v>
+        <v>0.990378305911467</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9911678954760118</v>
+      </c>
+      <c r="D17">
+        <v>0.9958737558574973</v>
+      </c>
+      <c r="E17">
+        <v>0.9957147316274457</v>
+      </c>
+      <c r="F17">
+        <v>0.9911678954760118</v>
+      </c>
+      <c r="G17">
+        <v>0.9932382457228821</v>
+      </c>
+      <c r="H17">
+        <v>0.9975478825372642</v>
+      </c>
+      <c r="I17">
+        <v>0.9940132030358892</v>
+      </c>
+      <c r="J17">
+        <v>0.9958737558574973</v>
+      </c>
+      <c r="K17">
+        <v>0.9957942437424715</v>
+      </c>
+      <c r="L17">
+        <v>0.9934810696092417</v>
+      </c>
+      <c r="M17">
+        <v>0.9945926190428317</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>1.016163855622647</v>
+      </c>
+      <c r="D18">
+        <v>1.008339418075178</v>
+      </c>
+      <c r="E18">
+        <v>0.9803465068803793</v>
+      </c>
+      <c r="F18">
+        <v>1.016163855622647</v>
+      </c>
+      <c r="G18">
+        <v>1.000786570985487</v>
+      </c>
+      <c r="H18">
+        <v>0.961461055674396</v>
+      </c>
+      <c r="I18">
+        <v>0.9891967017421806</v>
+      </c>
+      <c r="J18">
+        <v>1.008339418075178</v>
+      </c>
+      <c r="K18">
+        <v>0.9943429624777786</v>
+      </c>
+      <c r="L18">
+        <v>1.005253409050213</v>
+      </c>
+      <c r="M18">
+        <v>0.9927156848300447</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9799777234107785</v>
+      </c>
+      <c r="D19">
+        <v>1.041182018258795</v>
+      </c>
+      <c r="E19">
+        <v>0.9813921163939127</v>
+      </c>
+      <c r="F19">
+        <v>0.9799777234107785</v>
+      </c>
+      <c r="G19">
+        <v>1.029828105860723</v>
+      </c>
+      <c r="H19">
+        <v>0.942627928293192</v>
+      </c>
+      <c r="I19">
+        <v>0.9783258374690924</v>
+      </c>
+      <c r="J19">
+        <v>1.041182018258795</v>
+      </c>
+      <c r="K19">
+        <v>1.011287067326354</v>
+      </c>
+      <c r="L19">
+        <v>0.9956323953685662</v>
+      </c>
+      <c r="M19">
+        <v>0.9922222882810824</v>
       </c>
     </row>
   </sheetData>
